--- a/indigo/spreadsheetform_guides/project_public_v013.xlsx
+++ b/indigo/spreadsheetform_guides/project_public_v013.xlsx
@@ -10069,7 +10069,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C20" type="none">
-      <formula1>#REF! $A$1:$A$249</formula1>
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
